--- a/data/trans_orig/P6907S1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B80D3372-4DDD-4E0B-A0AB-F08E8085326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B3DF822-38AC-459A-9FAC-C2FB0AF695A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{37FA1F5E-C2F2-4999-A767-75915B25F5C4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0599DEE1-3CB9-4392-906A-F26B5D4853BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="278">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,277 +77,283 @@
     <t>6,8%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>87,14%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>3,14%</t>
@@ -356,19 +362,19 @@
     <t>3,67%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>96,86%</t>
@@ -377,10 +383,10 @@
     <t>96,33%</t>
   </si>
   <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -389,19 +395,19 @@
     <t>19,81%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -410,73 +416,67 @@
     <t>80,19%</t>
   </si>
   <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>91,2%</t>
   </si>
   <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>7,6%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>92,4%</t>
   </si>
   <si>
     <t>95,6%</t>
   </si>
   <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2015 (Tasa respuesta: 8,05%)</t>
@@ -485,10 +485,10 @@
     <t>6,08%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -497,175 +497,181 @@
     <t>4,59%</t>
   </si>
   <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>96,5%</t>
   </si>
   <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>96,89%</t>
   </si>
   <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
@@ -674,157 +680,163 @@
     <t>5,44%</t>
   </si>
   <si>
-    <t>17,41%</t>
+    <t>15,66%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
+    <t>13,29%</t>
+  </si>
+  <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>82,59%</t>
+    <t>84,34%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
+    <t>86,71%</t>
+  </si>
+  <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
+    <t>11,18%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>88,82%</t>
   </si>
   <si>
     <t>91,57%</t>
   </si>
   <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>21,24%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>87,28%</t>
   </si>
   <si>
-    <t>78,76%</t>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
   </si>
   <si>
     <t>10,8%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>9,66%</t>
@@ -833,31 +845,31 @@
     <t>7,55%</t>
   </si>
   <si>
-    <t>12,46%</t>
+    <t>12,26%</t>
   </si>
   <si>
     <t>89,2%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>91,45%</t>
   </si>
   <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>90,34%</t>
   </si>
   <si>
-    <t>87,54%</t>
+    <t>87,74%</t>
   </si>
   <si>
     <t>92,45%</t>
@@ -1272,7 +1284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6392A4BD-5AC4-4D38-894B-994DABBEABF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54799989-80E9-4E52-AFCA-103DCF1191A8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2023,7 +2035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAB42DE-8242-4F1B-B4CB-73E7C47CC7F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17497476-3536-4C2D-BF8F-0D377D134AA4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2177,13 +2189,13 @@
         <v>2037</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2210,13 @@
         <v>29161</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -2213,10 +2225,10 @@
         <v>21578</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -2228,13 +2240,13 @@
         <v>50739</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,13 +2314,13 @@
         <v>5790</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2323,7 +2335,7 @@
         <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -2332,13 +2344,13 @@
         <v>5790</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2365,13 @@
         <v>87595</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -2368,10 +2380,10 @@
         <v>64198</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -2383,13 +2395,13 @@
         <v>151792</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2475,7 @@
         <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2472,13 +2484,13 @@
         <v>2849</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2487,13 +2499,13 @@
         <v>2849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,10 +2520,10 @@
         <v>17994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -2523,13 +2535,13 @@
         <v>11536</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -2538,13 +2550,13 @@
         <v>29530</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2624,13 @@
         <v>7827</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2627,13 +2639,13 @@
         <v>2849</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2642,13 +2654,13 @@
         <v>10676</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2675,13 @@
         <v>134750</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -2678,13 +2690,13 @@
         <v>97312</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>221</v>
@@ -2774,7 +2786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3406BFB-F6C9-4004-94B9-584995ACAD5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931761AA-62AF-4DF0-B35F-73DC436AD025}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2964,7 +2976,7 @@
         <v>18024</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>157</v>
@@ -3056,10 +3068,10 @@
         <v>161</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3068,13 +3080,13 @@
         <v>1910</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3083,13 +3095,13 @@
         <v>8906</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3116,13 @@
         <v>222386</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>120</v>
@@ -3119,13 +3131,13 @@
         <v>122655</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>327</v>
@@ -3134,13 +3146,13 @@
         <v>345041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3220,13 @@
         <v>1829</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3223,13 +3235,13 @@
         <v>3424</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3238,13 +3250,13 @@
         <v>5253</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3271,13 @@
         <v>61699</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -3274,13 +3286,13 @@
         <v>70284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>118</v>
@@ -3289,13 +3301,13 @@
         <v>131983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,13 +3375,13 @@
         <v>12204</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3378,13 +3390,13 @@
         <v>5334</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3393,13 +3405,13 @@
         <v>17538</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3426,13 @@
         <v>336287</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -3429,13 +3441,13 @@
         <v>210964</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>511</v>
@@ -3444,13 +3456,13 @@
         <v>547250</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,7 +3537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F54A9F5-F477-4E21-9186-15B55AC930EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0519FC-354F-42A6-A7A2-8B57298E5BE9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3542,7 +3554,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3649,13 +3661,13 @@
         <v>1657</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3664,13 +3676,13 @@
         <v>839</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3679,13 +3691,13 @@
         <v>2496</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3712,13 @@
         <v>28823</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -3715,13 +3727,13 @@
         <v>28155</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -3730,13 +3742,13 @@
         <v>56978</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3816,13 @@
         <v>23191</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3819,13 +3831,13 @@
         <v>17544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -3834,13 +3846,13 @@
         <v>40735</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3867,13 @@
         <v>226159</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>283</v>
@@ -3870,13 +3882,13 @@
         <v>216417</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
@@ -3885,13 +3897,13 @@
         <v>442576</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3971,13 @@
         <v>13139</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3974,13 +3986,13 @@
         <v>12477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3989,13 +4001,13 @@
         <v>25615</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4022,13 @@
         <v>58678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -4025,13 +4037,13 @@
         <v>85619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>169</v>
@@ -4040,13 +4052,13 @@
         <v>144298</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4126,13 @@
         <v>37986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4129,13 +4141,13 @@
         <v>30860</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -4144,13 +4156,13 @@
         <v>68846</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4177,13 @@
         <v>313660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>432</v>
@@ -4180,13 +4192,13 @@
         <v>330192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>734</v>
@@ -4195,13 +4207,13 @@
         <v>643852</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6907S1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B3DF822-38AC-459A-9FAC-C2FB0AF695A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{148568FD-E049-44CC-8F69-781492ED3FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0599DEE1-3CB9-4392-906A-F26B5D4853BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{014F6001-E13A-49C6-8295-0840D8F38DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="276">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>6,8%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,2%</t>
   </si>
   <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>9,17%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,103 @@
     <t>13,01%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>83,46%</t>
   </si>
   <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>12,5%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>90,79%</t>
   </si>
   <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>87,5%</t>
   </si>
   <si>
     <t>89,27%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
   </si>
   <si>
     <t>90,3%</t>
   </si>
   <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -314,7 +308,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>19,97%</t>
+    <t>19,7%</t>
   </si>
   <si>
     <t>0%</t>
@@ -326,13 +320,13 @@
     <t>3,86%</t>
   </si>
   <si>
-    <t>12,86%</t>
+    <t>13,55%</t>
   </si>
   <si>
     <t>93,47%</t>
   </si>
   <si>
-    <t>80,03%</t>
+    <t>80,3%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -344,16 +338,16 @@
     <t>96,14%</t>
   </si>
   <si>
-    <t>87,14%</t>
+    <t>86,45%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
   </si>
   <si>
     <t>3,14%</t>
@@ -362,19 +356,19 @@
     <t>3,67%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>96,86%</t>
@@ -383,10 +377,10 @@
     <t>96,33%</t>
   </si>
   <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -395,19 +389,19 @@
     <t>19,81%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -416,79 +410,85 @@
     <t>80,19%</t>
   </si>
   <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>91,2%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>7,6%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>92,4%</t>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>95,6%</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2015 (Tasa respuesta: 8,05%)</t>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2016 (Tasa respuesta: 8,05%)</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -497,19 +497,19 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -518,246 +518,246 @@
     <t>95,41%</t>
   </si>
   <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>5,47%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>1,3%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
     <t>91,57%</t>
   </si>
   <si>
@@ -839,9 +839,6 @@
     <t>12,22%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
     <t>7,55%</t>
   </si>
   <si>
@@ -864,9 +861,6 @@
   </si>
   <si>
     <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
   </si>
   <si>
     <t>87,74%</t>
@@ -1284,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54799989-80E9-4E52-AFCA-103DCF1191A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3400E26D-4459-4FFF-9A62-E074C6F987CA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1876,10 +1870,10 @@
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -1888,13 +1882,13 @@
         <v>23625</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -1903,13 +1897,13 @@
         <v>67134</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1918,13 @@
         <v>428797</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>192</v>
@@ -1939,13 +1933,13 @@
         <v>196496</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>602</v>
@@ -1954,13 +1948,13 @@
         <v>625293</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,7 +2010,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17497476-3536-4C2D-BF8F-0D377D134AA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFD6335-9EE2-46D0-B66B-DBBB48505DE9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2052,7 +2046,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2159,13 +2153,13 @@
         <v>2037</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2174,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2189,13 +2183,13 @@
         <v>2037</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2204,13 @@
         <v>29161</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -2225,10 +2219,10 @@
         <v>21578</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -2240,13 +2234,13 @@
         <v>50739</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,13 +2308,13 @@
         <v>5790</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2329,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -2344,13 +2338,13 @@
         <v>5790</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2359,13 @@
         <v>87595</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -2380,10 +2374,10 @@
         <v>64198</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -2395,13 +2389,13 @@
         <v>151792</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2484,13 +2478,13 @@
         <v>2849</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2499,13 +2493,13 @@
         <v>2849</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,10 +2514,10 @@
         <v>17994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -2535,13 +2529,13 @@
         <v>11536</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -2550,13 +2544,13 @@
         <v>29530</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2618,13 @@
         <v>7827</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2639,13 +2633,13 @@
         <v>2849</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2654,13 +2648,13 @@
         <v>10676</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2669,13 @@
         <v>134750</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -2690,13 +2684,13 @@
         <v>97312</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>221</v>
@@ -2767,7 +2761,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931761AA-62AF-4DF0-B35F-73DC436AD025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA448FF-6A62-4C12-B67C-9394CF88B6D6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2925,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>150</v>
@@ -2976,7 +2970,7 @@
         <v>18024</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>157</v>
@@ -3083,7 +3077,7 @@
         <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>165</v>
@@ -3137,7 +3131,7 @@
         <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M8" s="7">
         <v>327</v>
@@ -3223,7 +3217,7 @@
         <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>178</v>
@@ -3253,10 +3247,10 @@
         <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3265,13 @@
         <v>61699</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -3286,13 +3280,13 @@
         <v>70284</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>118</v>
@@ -3301,13 +3295,13 @@
         <v>131983</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3369,13 @@
         <v>12204</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3390,13 +3384,13 @@
         <v>5334</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3405,13 +3399,13 @@
         <v>17538</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3420,13 @@
         <v>336287</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -3441,13 +3435,13 @@
         <v>210964</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>511</v>
@@ -3456,13 +3450,13 @@
         <v>547250</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,7 +3512,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3537,7 +3531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0519FC-354F-42A6-A7A2-8B57298E5BE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6547365D-9CEA-4248-B6C6-6CC6D2FCB5B5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3554,7 +3548,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3661,13 +3655,13 @@
         <v>1657</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3676,13 +3670,13 @@
         <v>839</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3691,13 +3685,13 @@
         <v>2496</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3706,13 @@
         <v>28823</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -3727,13 +3721,13 @@
         <v>28155</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -3742,13 +3736,13 @@
         <v>56978</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3810,13 @@
         <v>23191</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3831,13 +3825,13 @@
         <v>17544</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -3846,13 +3840,13 @@
         <v>40735</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3861,13 @@
         <v>226159</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>283</v>
@@ -3882,13 +3876,13 @@
         <v>216417</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
@@ -4156,13 +4150,13 @@
         <v>68846</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4171,13 @@
         <v>313660</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>432</v>
@@ -4192,13 +4186,13 @@
         <v>330192</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>734</v>
@@ -4207,13 +4201,13 @@
         <v>643852</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,7 +4263,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6907S1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{148568FD-E049-44CC-8F69-781492ED3FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{698BACB0-6ECB-4290-831F-9808E1EC9798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{014F6001-E13A-49C6-8295-0840D8F38DD6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D7BF1365-1D3B-461A-BE67-13F3A5A4BDA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="274">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,16 +71,16 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>8,02%</t>
@@ -89,16 +89,16 @@
     <t>2,29%</t>
   </si>
   <si>
-    <t>20,24%</t>
+    <t>20,96%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>93,2%</t>
   </si>
   <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>79,76%</t>
+    <t>79,04%</t>
   </si>
   <si>
     <t>97,71%</t>
@@ -125,10 +125,10 @@
     <t>92,89%</t>
   </si>
   <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>9,17%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,673 +197,667 @@
     <t>13,01%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>90,34%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
+    <t>87,54%</t>
   </si>
   <si>
     <t>92,45%</t>
@@ -1278,7 +1272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3400E26D-4459-4FFF-9A62-E074C6F987CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA42E66-A42A-46AC-9347-38FC5FFF0B55}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1870,10 +1864,10 @@
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -1882,13 +1876,13 @@
         <v>23625</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -1897,13 +1891,13 @@
         <v>67134</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1912,13 @@
         <v>428797</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>192</v>
@@ -1933,13 +1927,13 @@
         <v>196496</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>602</v>
@@ -1948,13 +1942,13 @@
         <v>625293</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,7 +2004,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2029,7 +2023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFD6335-9EE2-46D0-B66B-DBBB48505DE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697BD23A-AE5E-4B6A-A8DF-4CC16AAACC35}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2046,7 +2040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2153,13 +2147,13 @@
         <v>2037</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2168,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2183,13 +2177,13 @@
         <v>2037</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2198,13 @@
         <v>29161</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -2219,10 +2213,10 @@
         <v>21578</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -2234,13 +2228,13 @@
         <v>50739</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>103</v>
@@ -2374,7 +2368,7 @@
         <v>64198</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>110</v>
@@ -2463,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>114</v>
@@ -2514,7 +2508,7 @@
         <v>17994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>121</v>
@@ -2761,7 +2755,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +2774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA448FF-6A62-4C12-B67C-9394CF88B6D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31881550-76ED-47C6-A649-08555DF951E6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2919,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>150</v>
@@ -2970,7 +2964,7 @@
         <v>18024</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>157</v>
@@ -3062,10 +3056,10 @@
         <v>161</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3074,13 +3068,13 @@
         <v>1910</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3089,13 +3083,13 @@
         <v>8906</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3104,13 @@
         <v>222386</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>120</v>
@@ -3125,13 +3119,13 @@
         <v>122655</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" s="7">
         <v>327</v>
@@ -3140,13 +3134,13 @@
         <v>345041</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3208,13 @@
         <v>1829</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3229,13 +3223,13 @@
         <v>3424</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3244,13 +3238,13 @@
         <v>5253</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3259,13 @@
         <v>61699</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
@@ -3280,13 +3274,13 @@
         <v>70284</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>118</v>
@@ -3295,13 +3289,13 @@
         <v>131983</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,7 +3506,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3531,7 +3525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6547365D-9CEA-4248-B6C6-6CC6D2FCB5B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023BB40C-BBC7-4CB0-976B-4504DAF83E47}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3658,7 +3652,7 @@
         <v>210</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>211</v>
@@ -3673,10 +3667,10 @@
         <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3685,13 +3679,13 @@
         <v>2496</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3700,13 @@
         <v>28823</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -3721,13 +3715,13 @@
         <v>28155</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -3736,13 +3730,13 @@
         <v>56978</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3804,13 @@
         <v>23191</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3825,13 +3819,13 @@
         <v>17544</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -3840,13 +3834,13 @@
         <v>40735</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3855,13 @@
         <v>226159</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>283</v>
@@ -3876,13 +3870,13 @@
         <v>216417</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
@@ -3891,13 +3885,13 @@
         <v>442576</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3959,13 @@
         <v>13139</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3980,13 +3974,13 @@
         <v>12477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3995,13 +3989,13 @@
         <v>25615</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4010,13 @@
         <v>58678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -4031,13 +4025,13 @@
         <v>85619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>169</v>
@@ -4046,13 +4040,13 @@
         <v>144298</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4114,13 @@
         <v>37986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4135,13 +4129,13 @@
         <v>30860</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -4150,13 +4144,13 @@
         <v>68846</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4165,13 @@
         <v>313660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>432</v>
@@ -4186,13 +4180,13 @@
         <v>330192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>734</v>
@@ -4201,13 +4195,13 @@
         <v>643852</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,7 +4257,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6907S1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{698BACB0-6ECB-4290-831F-9808E1EC9798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA091F16-DD6F-4D46-8D4D-C50E79D324D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D7BF1365-1D3B-461A-BE67-13F3A5A4BDA2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7ED65E97-BE85-4F47-A079-94E744168CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="278">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -671,196 +671,208 @@
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
   </si>
   <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA42E66-A42A-46AC-9347-38FC5FFF0B55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21F9CCD-D994-4492-8AA3-A8571C32E3D9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2023,7 +2035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697BD23A-AE5E-4B6A-A8DF-4CC16AAACC35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE485AED-EF8E-4E2B-BA72-F697162BB2B9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2774,7 +2786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31881550-76ED-47C6-A649-08555DF951E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18936C70-3893-49C5-BE0A-0990F1F77C48}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3525,7 +3537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023BB40C-BBC7-4CB0-976B-4504DAF83E47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4ECA79-D35B-4782-A9BD-AA81DBE4B465}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3646,7 +3658,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1657</v>
+        <v>1683</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>210</v>
@@ -3661,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>839</v>
+        <v>789</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>212</v>
@@ -3670,22 +3682,22 @@
         <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>2496</v>
+        <v>2472</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3709,13 @@
         <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>28823</v>
+        <v>27531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>97</v>
@@ -3712,13 +3724,13 @@
         <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>28155</v>
+        <v>24197</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>97</v>
@@ -3727,16 +3739,16 @@
         <v>66</v>
       </c>
       <c r="N5" s="7">
-        <v>56978</v>
+        <v>51728</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,7 +3760,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="7">
-        <v>30480</v>
+        <v>29214</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3763,7 +3775,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="7">
-        <v>28994</v>
+        <v>24986</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3778,7 +3790,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>59474</v>
+        <v>54200</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3801,46 +3813,46 @@
         <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>23191</v>
+        <v>22403</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>17544</v>
+        <v>16266</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>40735</v>
+        <v>38669</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,46 +3864,46 @@
         <v>216</v>
       </c>
       <c r="D8" s="7">
-        <v>226159</v>
+        <v>217177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>283</v>
       </c>
       <c r="I8" s="7">
-        <v>216417</v>
+        <v>222102</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>499</v>
       </c>
       <c r="N8" s="7">
-        <v>442576</v>
+        <v>439279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,7 +3915,7 @@
         <v>239</v>
       </c>
       <c r="D9" s="7">
-        <v>249350</v>
+        <v>239580</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3918,7 +3930,7 @@
         <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>233961</v>
+        <v>238368</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3933,7 +3945,7 @@
         <v>546</v>
       </c>
       <c r="N9" s="7">
-        <v>483311</v>
+        <v>477948</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3956,46 +3968,46 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>13139</v>
+        <v>12690</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>12477</v>
+        <v>11782</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>25615</v>
+        <v>24472</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,46 +4019,46 @@
         <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>58678</v>
+        <v>56836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
       </c>
       <c r="I11" s="7">
-        <v>85619</v>
+        <v>78913</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>169</v>
       </c>
       <c r="N11" s="7">
-        <v>144298</v>
+        <v>135749</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,7 +4070,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>71817</v>
+        <v>69526</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4073,7 +4085,7 @@
         <v>131</v>
       </c>
       <c r="I12" s="7">
-        <v>98096</v>
+        <v>90695</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4088,7 +4100,7 @@
         <v>194</v>
       </c>
       <c r="N12" s="7">
-        <v>169913</v>
+        <v>160221</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4111,46 +4123,46 @@
         <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>37986</v>
+        <v>36776</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>30860</v>
+        <v>28837</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
       </c>
       <c r="N13" s="7">
-        <v>68846</v>
+        <v>65613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,46 +4174,46 @@
         <v>302</v>
       </c>
       <c r="D14" s="7">
-        <v>313660</v>
+        <v>301544</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>432</v>
       </c>
       <c r="I14" s="7">
-        <v>330192</v>
+        <v>325212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>734</v>
       </c>
       <c r="N14" s="7">
-        <v>643852</v>
+        <v>626756</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,7 +4225,7 @@
         <v>337</v>
       </c>
       <c r="D15" s="7">
-        <v>351646</v>
+        <v>338320</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4228,7 +4240,7 @@
         <v>473</v>
       </c>
       <c r="I15" s="7">
-        <v>361052</v>
+        <v>354049</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4243,7 +4255,7 @@
         <v>810</v>
       </c>
       <c r="N15" s="7">
-        <v>712698</v>
+        <v>692369</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
